--- a/imageCreationExcel/back/darkyobi/darkyobi_14.xlsx
+++ b/imageCreationExcel/back/darkyobi/darkyobi_14.xlsx
@@ -486,7 +486,7 @@
       </c>
       <c r="B2" t="inlineStr">
         <is>
-          <t>pictures\transformed\roomDark_figureBright\1.JPG</t>
+          <t>pictures\transformed\roomDark_figureBright\E.JPG</t>
         </is>
       </c>
       <c r="C2" t="inlineStr">
@@ -495,7 +495,7 @@
         </is>
       </c>
       <c r="D2" t="n">
-        <v>0.8169398093730935</v>
+        <v>0.8274268573603852</v>
       </c>
       <c r="E2" t="inlineStr">
         <is>
@@ -503,22 +503,22 @@
         </is>
       </c>
       <c r="F2" t="n">
-        <v>0.1599071317380123</v>
+        <v>0.3974592051976931</v>
       </c>
       <c r="G2" t="inlineStr">
         <is>
-          <t>brightness</t>
+          <t>equalization</t>
         </is>
       </c>
       <c r="H2" t="n">
-        <v>17.57786691140731</v>
+        <v>6.539092566556151</v>
       </c>
       <c r="I2" t="n">
         <v>4</v>
       </c>
       <c r="J2" t="inlineStr">
         <is>
-          <t>1_1_gamma0.82_sharpness0.16_brightness18.0.jpg</t>
+          <t>1_E_gamma0.83_sharpness0.4_equalization6.5.jpg</t>
         </is>
       </c>
     </row>
@@ -528,24 +528,24 @@
       </c>
       <c r="B3" t="inlineStr">
         <is>
-          <t>pictures\transformed\roomDark_figureBright\0.JPG</t>
+          <t>pictures\transformed\roomDark_figureBright\8.JPG</t>
         </is>
       </c>
       <c r="C3" t="inlineStr">
         <is>
-          <t>contrast</t>
+          <t>sharpness</t>
         </is>
       </c>
       <c r="D3" t="n">
-        <v>1.167646655409529</v>
+        <v>0.6546961684330799</v>
       </c>
       <c r="E3" t="inlineStr">
         <is>
-          <t>gamma</t>
+          <t>contrast</t>
         </is>
       </c>
       <c r="F3" t="n">
-        <v>0.9792999684968502</v>
+        <v>0.9056726342509419</v>
       </c>
       <c r="G3" t="inlineStr">
         <is>
@@ -553,14 +553,14 @@
         </is>
       </c>
       <c r="H3" t="n">
-        <v>28.04990620364543</v>
+        <v>30.10295789940013</v>
       </c>
       <c r="I3" t="n">
         <v>4</v>
       </c>
       <c r="J3" t="inlineStr">
         <is>
-          <t>2_0_contrast1.2_gamma0.98_equalization28.0.jpg</t>
+          <t>2_8_sharpness0.65_contrast0.91_equalization30.0.jpg</t>
         </is>
       </c>
     </row>
@@ -575,34 +575,34 @@
       </c>
       <c r="C4" t="inlineStr">
         <is>
-          <t>sharpness</t>
+          <t>contrast</t>
         </is>
       </c>
       <c r="D4" t="n">
-        <v>0.4677004842533722</v>
+        <v>0.8422301743415508</v>
       </c>
       <c r="E4" t="inlineStr">
         <is>
-          <t>contrast</t>
+          <t>brightness</t>
         </is>
       </c>
       <c r="F4" t="n">
-        <v>1.094959329991676</v>
+        <v>10.924665071176</v>
       </c>
       <c r="G4" t="inlineStr">
         <is>
-          <t>equalization</t>
+          <t>gamma</t>
         </is>
       </c>
       <c r="H4" t="n">
-        <v>10.19621625832267</v>
+        <v>0.7711408951733744</v>
       </c>
       <c r="I4" t="n">
-        <v>4</v>
+        <v>0</v>
       </c>
       <c r="J4" t="inlineStr">
         <is>
-          <t>3_7_sharpness0.47_contrast1.1_equalization10.0.jpg</t>
+          <t>3_7_contrast0.84_brightness11.0_gamma0.77.jpg</t>
         </is>
       </c>
     </row>
@@ -612,39 +612,39 @@
       </c>
       <c r="B5" t="inlineStr">
         <is>
-          <t>pictures\transformed\roomDark_figureBright\B.JPG</t>
+          <t>pictures\transformed\roomDark_figureBright\3.JPG</t>
         </is>
       </c>
       <c r="C5" t="inlineStr">
         <is>
-          <t>contrast</t>
+          <t>gamma</t>
         </is>
       </c>
       <c r="D5" t="n">
-        <v>1.157759850862221</v>
+        <v>0.5843839589590158</v>
       </c>
       <c r="E5" t="inlineStr">
         <is>
-          <t>sharpness</t>
+          <t>contrast</t>
         </is>
       </c>
       <c r="F5" t="n">
-        <v>0.8927070601038973</v>
+        <v>0.8316351602689404</v>
       </c>
       <c r="G5" t="inlineStr">
         <is>
-          <t>gamma</t>
+          <t>equalization</t>
         </is>
       </c>
       <c r="H5" t="n">
-        <v>0.5844567923766024</v>
+        <v>31.98140347742508</v>
       </c>
       <c r="I5" t="n">
         <v>4</v>
       </c>
       <c r="J5" t="inlineStr">
         <is>
-          <t>4_B_contrast1.2_sharpness0.89_gamma0.58.jpg</t>
+          <t>4_3_gamma0.58_contrast0.83_equalization32.0.jpg</t>
         </is>
       </c>
     </row>
@@ -654,39 +654,39 @@
       </c>
       <c r="B6" t="inlineStr">
         <is>
-          <t>pictures\transformed\roomDark_figureBright\C.JPG</t>
+          <t>pictures\transformed\roomDark_figureBright\7.JPG</t>
         </is>
       </c>
       <c r="C6" t="inlineStr">
         <is>
-          <t>contrast</t>
+          <t>brightness</t>
         </is>
       </c>
       <c r="D6" t="n">
-        <v>0.8383601982732856</v>
+        <v>12.68375539025095</v>
       </c>
       <c r="E6" t="inlineStr">
         <is>
-          <t>brightness</t>
+          <t>gamma</t>
         </is>
       </c>
       <c r="F6" t="n">
-        <v>10.88760738927458</v>
+        <v>1.008829087512801</v>
       </c>
       <c r="G6" t="inlineStr">
         <is>
-          <t>sharpness</t>
+          <t>contrast</t>
         </is>
       </c>
       <c r="H6" t="n">
-        <v>0.3420384014263405</v>
+        <v>1.160531072721252</v>
       </c>
       <c r="I6" t="n">
         <v>4</v>
       </c>
       <c r="J6" t="inlineStr">
         <is>
-          <t>5_C_contrast0.84_brightness11.0_sharpness0.34.jpg</t>
+          <t>5_7_brightness13.0_gamma1.0_contrast1.2.jpg</t>
         </is>
       </c>
     </row>
@@ -696,16 +696,16 @@
       </c>
       <c r="B7" t="inlineStr">
         <is>
-          <t>pictures\transformed\roomDark_figureBright\E.JPG</t>
+          <t>pictures\transformed\roomDark_figureBright\0.JPG</t>
         </is>
       </c>
       <c r="C7" t="inlineStr">
         <is>
-          <t>contrast</t>
+          <t>brightness</t>
         </is>
       </c>
       <c r="D7" t="n">
-        <v>0.9234762295429078</v>
+        <v>3.03509954708582</v>
       </c>
       <c r="E7" t="inlineStr">
         <is>
@@ -713,22 +713,22 @@
         </is>
       </c>
       <c r="F7" t="n">
-        <v>0.9586581989655253</v>
+        <v>0.7160213675823388</v>
       </c>
       <c r="G7" t="inlineStr">
         <is>
-          <t>brightness</t>
+          <t>contrast</t>
         </is>
       </c>
       <c r="H7" t="n">
-        <v>23.58730338940983</v>
+        <v>0.8755142063709116</v>
       </c>
       <c r="I7" t="n">
         <v>4</v>
       </c>
       <c r="J7" t="inlineStr">
         <is>
-          <t>6_E_contrast0.92_gamma0.96_brightness24.0.jpg</t>
+          <t>6_0_brightness3.0_gamma0.72_contrast0.88.jpg</t>
         </is>
       </c>
     </row>
@@ -738,24 +738,24 @@
       </c>
       <c r="B8" t="inlineStr">
         <is>
-          <t>pictures\transformed\roomDark_figureBright\3.JPG</t>
+          <t>pictures\transformed\roomDark_figureBright\2.JPG</t>
         </is>
       </c>
       <c r="C8" t="inlineStr">
         <is>
-          <t>gamma</t>
+          <t>sharpness</t>
         </is>
       </c>
       <c r="D8" t="n">
-        <v>0.7224692234973455</v>
+        <v>0.7445570595149461</v>
       </c>
       <c r="E8" t="inlineStr">
         <is>
-          <t>contrast</t>
+          <t>gamma</t>
         </is>
       </c>
       <c r="F8" t="n">
-        <v>0.8804101805997976</v>
+        <v>0.8320993220925409</v>
       </c>
       <c r="G8" t="inlineStr">
         <is>
@@ -763,14 +763,14 @@
         </is>
       </c>
       <c r="H8" t="n">
-        <v>4.611258451122875</v>
+        <v>6.885893281481143</v>
       </c>
       <c r="I8" t="n">
-        <v>2</v>
+        <v>4</v>
       </c>
       <c r="J8" t="inlineStr">
         <is>
-          <t>7_3_gamma0.72_contrast0.88_brightness4.6.jpg</t>
+          <t>7_2_sharpness0.74_gamma0.83_brightness6.9.jpg</t>
         </is>
       </c>
     </row>
@@ -780,7 +780,7 @@
       </c>
       <c r="B9" t="inlineStr">
         <is>
-          <t>pictures\transformed\roomDark_figureBright\I.JPG</t>
+          <t>pictures\transformed\roomDark_figureBright\B.JPG</t>
         </is>
       </c>
       <c r="C9" t="inlineStr">
@@ -789,15 +789,15 @@
         </is>
       </c>
       <c r="D9" t="n">
-        <v>0.8703672947867884</v>
+        <v>0.3366633511433631</v>
       </c>
       <c r="E9" t="inlineStr">
         <is>
-          <t>gamma</t>
+          <t>contrast</t>
         </is>
       </c>
       <c r="F9" t="n">
-        <v>1.002315806492767</v>
+        <v>0.9513391635033958</v>
       </c>
       <c r="G9" t="inlineStr">
         <is>
@@ -805,14 +805,14 @@
         </is>
       </c>
       <c r="H9" t="n">
-        <v>10.60336272803285</v>
+        <v>6.782514113973857</v>
       </c>
       <c r="I9" t="n">
         <v>4</v>
       </c>
       <c r="J9" t="inlineStr">
         <is>
-          <t>8_I_sharpness0.87_gamma1.0_equalization11.0.jpg</t>
+          <t>8_B_sharpness0.34_contrast0.95_equalization6.8.jpg</t>
         </is>
       </c>
     </row>
@@ -822,24 +822,24 @@
       </c>
       <c r="B10" t="inlineStr">
         <is>
-          <t>pictures\transformed\roomDark_figureBright\0.JPG</t>
+          <t>pictures\transformed\roomDark_figureBright\E.JPG</t>
         </is>
       </c>
       <c r="C10" t="inlineStr">
         <is>
-          <t>sharpness</t>
+          <t>gamma</t>
         </is>
       </c>
       <c r="D10" t="n">
-        <v>0.7871622917958977</v>
+        <v>0.6245676560007439</v>
       </c>
       <c r="E10" t="inlineStr">
         <is>
-          <t>contrast</t>
+          <t>sharpness</t>
         </is>
       </c>
       <c r="F10" t="n">
-        <v>1.092301688567593</v>
+        <v>0.6380886376924515</v>
       </c>
       <c r="G10" t="inlineStr">
         <is>
@@ -847,14 +847,14 @@
         </is>
       </c>
       <c r="H10" t="n">
-        <v>18.53814693390726</v>
+        <v>17.80969613464996</v>
       </c>
       <c r="I10" t="n">
         <v>4</v>
       </c>
       <c r="J10" t="inlineStr">
         <is>
-          <t>9_0_sharpness0.79_contrast1.1_equalization19.0.jpg</t>
+          <t>9_E_gamma0.62_sharpness0.64_equalization18.0.jpg</t>
         </is>
       </c>
     </row>
@@ -864,16 +864,16 @@
       </c>
       <c r="B11" t="inlineStr">
         <is>
-          <t>pictures\transformed\roomDark_figureBright\P.JPG</t>
+          <t>pictures\transformed\roomDark_figureBright\E.JPG</t>
         </is>
       </c>
       <c r="C11" t="inlineStr">
         <is>
-          <t>gamma</t>
+          <t>sharpness</t>
         </is>
       </c>
       <c r="D11" t="n">
-        <v>0.9632450247712452</v>
+        <v>0.8245157243047306</v>
       </c>
       <c r="E11" t="inlineStr">
         <is>
@@ -881,22 +881,22 @@
         </is>
       </c>
       <c r="F11" t="n">
-        <v>1.135699726603902</v>
+        <v>1.077282211829563</v>
       </c>
       <c r="G11" t="inlineStr">
         <is>
-          <t>sharpness</t>
+          <t>equalization</t>
         </is>
       </c>
       <c r="H11" t="n">
-        <v>0.8918458310807956</v>
+        <v>5.255029028004548</v>
       </c>
       <c r="I11" t="n">
         <v>4</v>
       </c>
       <c r="J11" t="inlineStr">
         <is>
-          <t>10_P_gamma0.96_contrast1.1_sharpness0.89.jpg</t>
+          <t>10_E_sharpness0.82_contrast1.1_equalization5.3.jpg</t>
         </is>
       </c>
     </row>
@@ -906,16 +906,16 @@
       </c>
       <c r="B12" t="inlineStr">
         <is>
-          <t>pictures\transformed\roomDark_figureBright\1.JPG</t>
+          <t>pictures\transformed\roomDark_figureBright\B.JPG</t>
         </is>
       </c>
       <c r="C12" t="inlineStr">
         <is>
-          <t>brightness</t>
+          <t>sharpness</t>
         </is>
       </c>
       <c r="D12" t="n">
-        <v>1.187553012096119</v>
+        <v>0.9288501492501157</v>
       </c>
       <c r="E12" t="inlineStr">
         <is>
@@ -923,22 +923,22 @@
         </is>
       </c>
       <c r="F12" t="n">
-        <v>0.8957104610296578</v>
+        <v>0.6821853532297906</v>
       </c>
       <c r="G12" t="inlineStr">
         <is>
-          <t>contrast</t>
+          <t>equalization</t>
         </is>
       </c>
       <c r="H12" t="n">
-        <v>1.161473707147896</v>
+        <v>22.86360106347249</v>
       </c>
       <c r="I12" t="n">
         <v>4</v>
       </c>
       <c r="J12" t="inlineStr">
         <is>
-          <t>11_1_brightness1.2_gamma0.9_contrast1.2.jpg</t>
+          <t>11_B_sharpness0.93_gamma0.68_equalization23.0.jpg</t>
         </is>
       </c>
     </row>
@@ -948,39 +948,39 @@
       </c>
       <c r="B13" t="inlineStr">
         <is>
-          <t>pictures\transformed\roomDark_figureBright\1.JPG</t>
+          <t>pictures\transformed\roomDark_figureBright\B.JPG</t>
         </is>
       </c>
       <c r="C13" t="inlineStr">
         <is>
-          <t>contrast</t>
+          <t>gamma</t>
         </is>
       </c>
       <c r="D13" t="n">
-        <v>0.9939144225965026</v>
+        <v>0.62658064346826</v>
       </c>
       <c r="E13" t="inlineStr">
         <is>
-          <t>brightness</t>
+          <t>contrast</t>
         </is>
       </c>
       <c r="F13" t="n">
-        <v>5.459505803891252</v>
+        <v>0.9079338291943474</v>
       </c>
       <c r="G13" t="inlineStr">
         <is>
-          <t>sharpness</t>
+          <t>equalization</t>
         </is>
       </c>
       <c r="H13" t="n">
-        <v>0.8796316935942635</v>
+        <v>27.43796339689421</v>
       </c>
       <c r="I13" t="n">
         <v>4</v>
       </c>
       <c r="J13" t="inlineStr">
         <is>
-          <t>12_1_contrast0.99_brightness5.5_sharpness0.88.jpg</t>
+          <t>12_B_gamma0.63_contrast0.91_equalization27.0.jpg</t>
         </is>
       </c>
     </row>
@@ -990,39 +990,39 @@
       </c>
       <c r="B14" t="inlineStr">
         <is>
-          <t>pictures\transformed\roomDark_figureBright\I.JPG</t>
+          <t>pictures\transformed\roomDark_figureBright\0.JPG</t>
         </is>
       </c>
       <c r="C14" t="inlineStr">
         <is>
-          <t>gamma</t>
+          <t>contrast</t>
         </is>
       </c>
       <c r="D14" t="n">
-        <v>0.5746031144202191</v>
+        <v>0.9598917080679414</v>
       </c>
       <c r="E14" t="inlineStr">
         <is>
-          <t>brightness</t>
+          <t>gamma</t>
         </is>
       </c>
       <c r="F14" t="n">
-        <v>16.60837731968708</v>
+        <v>0.9615697788811776</v>
       </c>
       <c r="G14" t="inlineStr">
         <is>
-          <t>contrast</t>
+          <t>sharpness</t>
         </is>
       </c>
       <c r="H14" t="n">
-        <v>1.191144184782202</v>
+        <v>0.05882478521645207</v>
       </c>
       <c r="I14" t="n">
-        <v>4</v>
+        <v>0</v>
       </c>
       <c r="J14" t="inlineStr">
         <is>
-          <t>13_I_gamma0.57_brightness17.0_contrast1.2.jpg</t>
+          <t>13_0_contrast0.96_gamma0.96_sharpness0.059.jpg</t>
         </is>
       </c>
     </row>
@@ -1032,24 +1032,24 @@
       </c>
       <c r="B15" t="inlineStr">
         <is>
-          <t>pictures\transformed\roomDark_figureBright\E.JPG</t>
+          <t>pictures\transformed\roomDark_figureBright\B.JPG</t>
         </is>
       </c>
       <c r="C15" t="inlineStr">
         <is>
-          <t>contrast</t>
+          <t>sharpness</t>
         </is>
       </c>
       <c r="D15" t="n">
-        <v>0.8523881716449732</v>
+        <v>0.8122931475272297</v>
       </c>
       <c r="E15" t="inlineStr">
         <is>
-          <t>gamma</t>
+          <t>contrast</t>
         </is>
       </c>
       <c r="F15" t="n">
-        <v>0.8343311891530717</v>
+        <v>0.8147755914153807</v>
       </c>
       <c r="G15" t="inlineStr">
         <is>
@@ -1057,14 +1057,14 @@
         </is>
       </c>
       <c r="H15" t="n">
-        <v>10.95265586672757</v>
+        <v>29.23461543233384</v>
       </c>
       <c r="I15" t="n">
         <v>4</v>
       </c>
       <c r="J15" t="inlineStr">
         <is>
-          <t>14_E_contrast0.85_gamma0.83_equalization11.0.jpg</t>
+          <t>14_B_sharpness0.81_contrast0.81_equalization29.0.jpg</t>
         </is>
       </c>
     </row>
@@ -1074,24 +1074,24 @@
       </c>
       <c r="B16" t="inlineStr">
         <is>
-          <t>pictures\transformed\roomDark_figureBright\I.JPG</t>
+          <t>pictures\transformed\roomDark_figureBright\P.JPG</t>
         </is>
       </c>
       <c r="C16" t="inlineStr">
         <is>
+          <t>contrast</t>
+        </is>
+      </c>
+      <c r="D16" t="n">
+        <v>1.114211176578514</v>
+      </c>
+      <c r="E16" t="inlineStr">
+        <is>
           <t>brightness</t>
         </is>
       </c>
-      <c r="D16" t="n">
-        <v>27.70451559918719</v>
-      </c>
-      <c r="E16" t="inlineStr">
-        <is>
-          <t>contrast</t>
-        </is>
-      </c>
       <c r="F16" t="n">
-        <v>1.171158918554456</v>
+        <v>18.49555280854903</v>
       </c>
       <c r="G16" t="inlineStr">
         <is>
@@ -1099,14 +1099,14 @@
         </is>
       </c>
       <c r="H16" t="n">
-        <v>0.5575163585081623</v>
+        <v>0.1378979979560588</v>
       </c>
       <c r="I16" t="n">
         <v>4</v>
       </c>
       <c r="J16" t="inlineStr">
         <is>
-          <t>15_I_brightness28.0_contrast1.2_sharpness0.56.jpg</t>
+          <t>15_P_contrast1.1_brightness18.0_sharpness0.14.jpg</t>
         </is>
       </c>
     </row>
@@ -1116,7 +1116,7 @@
       </c>
       <c r="B17" t="inlineStr">
         <is>
-          <t>pictures\transformed\roomDark_figureBright\9.JPG</t>
+          <t>pictures\transformed\roomDark_figureBright\P.JPG</t>
         </is>
       </c>
       <c r="C17" t="inlineStr">
@@ -1125,30 +1125,30 @@
         </is>
       </c>
       <c r="D17" t="n">
-        <v>0.8713693265456579</v>
+        <v>1.090849223339569</v>
       </c>
       <c r="E17" t="inlineStr">
         <is>
-          <t>gamma</t>
+          <t>sharpness</t>
         </is>
       </c>
       <c r="F17" t="n">
-        <v>0.7865620354478856</v>
+        <v>0.9997998077562982</v>
       </c>
       <c r="G17" t="inlineStr">
         <is>
-          <t>brightness</t>
+          <t>equalization</t>
         </is>
       </c>
       <c r="H17" t="n">
-        <v>29.17937400604601</v>
+        <v>30.5277538443485</v>
       </c>
       <c r="I17" t="n">
         <v>4</v>
       </c>
       <c r="J17" t="inlineStr">
         <is>
-          <t>16_9_contrast0.87_gamma0.79_brightness29.0.jpg</t>
+          <t>16_P_contrast1.1_sharpness1.0_equalization31.0.jpg</t>
         </is>
       </c>
     </row>
@@ -1163,11 +1163,11 @@
       </c>
       <c r="C18" t="inlineStr">
         <is>
-          <t>sharpness</t>
+          <t>gamma</t>
         </is>
       </c>
       <c r="D18" t="n">
-        <v>0.9381976837080632</v>
+        <v>1.008313930899299</v>
       </c>
       <c r="E18" t="inlineStr">
         <is>
@@ -1175,7 +1175,7 @@
         </is>
       </c>
       <c r="F18" t="n">
-        <v>1.080294835812299</v>
+        <v>1.165313324557239</v>
       </c>
       <c r="G18" t="inlineStr">
         <is>
@@ -1183,14 +1183,14 @@
         </is>
       </c>
       <c r="H18" t="n">
-        <v>18.14283963658161</v>
+        <v>13.79888522496955</v>
       </c>
       <c r="I18" t="n">
         <v>4</v>
       </c>
       <c r="J18" t="inlineStr">
         <is>
-          <t>17_P_sharpness0.94_contrast1.1_equalization18.0.jpg</t>
+          <t>17_P_gamma1.0_contrast1.2_equalization14.0.jpg</t>
         </is>
       </c>
     </row>
@@ -1200,16 +1200,16 @@
       </c>
       <c r="B19" t="inlineStr">
         <is>
-          <t>pictures\transformed\roomDark_figureBright\2.JPG</t>
+          <t>pictures\transformed\roomDark_figureBright\P.JPG</t>
         </is>
       </c>
       <c r="C19" t="inlineStr">
         <is>
-          <t>gamma</t>
+          <t>contrast</t>
         </is>
       </c>
       <c r="D19" t="n">
-        <v>0.631167693512097</v>
+        <v>0.9722660916826165</v>
       </c>
       <c r="E19" t="inlineStr">
         <is>
@@ -1217,7 +1217,7 @@
         </is>
       </c>
       <c r="F19" t="n">
-        <v>0.4440359568671981</v>
+        <v>0.8982716776869492</v>
       </c>
       <c r="G19" t="inlineStr">
         <is>
@@ -1225,14 +1225,14 @@
         </is>
       </c>
       <c r="H19" t="n">
-        <v>31.58322668769802</v>
+        <v>30.91254116881357</v>
       </c>
       <c r="I19" t="n">
         <v>4</v>
       </c>
       <c r="J19" t="inlineStr">
         <is>
-          <t>18_2_gamma0.63_sharpness0.44_equalization32.0.jpg</t>
+          <t>18_P_contrast0.97_sharpness0.9_equalization31.0.jpg</t>
         </is>
       </c>
     </row>
@@ -1242,39 +1242,39 @@
       </c>
       <c r="B20" t="inlineStr">
         <is>
-          <t>pictures\transformed\roomDark_figureBright\9.JPG</t>
+          <t>pictures\transformed\roomDark_figureBright\1.JPG</t>
         </is>
       </c>
       <c r="C20" t="inlineStr">
         <is>
-          <t>brightness</t>
+          <t>contrast</t>
         </is>
       </c>
       <c r="D20" t="n">
-        <v>18.3663647618136</v>
+        <v>0.8895015458721709</v>
       </c>
       <c r="E20" t="inlineStr">
         <is>
-          <t>contrast</t>
+          <t>gamma</t>
         </is>
       </c>
       <c r="F20" t="n">
-        <v>1.184560453653117</v>
+        <v>0.9915060038564102</v>
       </c>
       <c r="G20" t="inlineStr">
         <is>
-          <t>gamma</t>
+          <t>equalization</t>
         </is>
       </c>
       <c r="H20" t="n">
-        <v>0.9445053295759328</v>
+        <v>22.50816874166251</v>
       </c>
       <c r="I20" t="n">
         <v>4</v>
       </c>
       <c r="J20" t="inlineStr">
         <is>
-          <t>19_9_brightness18.0_contrast1.2_gamma0.94.jpg</t>
+          <t>19_1_contrast0.89_gamma0.99_equalization23.0.jpg</t>
         </is>
       </c>
     </row>
@@ -1284,39 +1284,39 @@
       </c>
       <c r="B21" t="inlineStr">
         <is>
-          <t>pictures\transformed\roomDark_figureBright\7.JPG</t>
+          <t>pictures\transformed\roomDark_figureBright\3.JPG</t>
         </is>
       </c>
       <c r="C21" t="inlineStr">
         <is>
+          <t>gamma</t>
+        </is>
+      </c>
+      <c r="D21" t="n">
+        <v>0.8897743394805904</v>
+      </c>
+      <c r="E21" t="inlineStr">
+        <is>
           <t>brightness</t>
         </is>
       </c>
-      <c r="D21" t="n">
-        <v>13.72738533775367</v>
-      </c>
-      <c r="E21" t="inlineStr">
-        <is>
-          <t>gamma</t>
-        </is>
-      </c>
       <c r="F21" t="n">
-        <v>1.069629615099719</v>
+        <v>6.52011657538405</v>
       </c>
       <c r="G21" t="inlineStr">
         <is>
-          <t>sharpness</t>
+          <t>contrast</t>
         </is>
       </c>
       <c r="H21" t="n">
-        <v>0.2903604027931744</v>
+        <v>0.944356898586276</v>
       </c>
       <c r="I21" t="n">
         <v>4</v>
       </c>
       <c r="J21" t="inlineStr">
         <is>
-          <t>20_7_brightness14.0_gamma1.1_sharpness0.29.jpg</t>
+          <t>20_3_gamma0.89_brightness6.5_contrast0.94.jpg</t>
         </is>
       </c>
     </row>
@@ -1326,39 +1326,39 @@
       </c>
       <c r="B22" t="inlineStr">
         <is>
-          <t>pictures\transformed\roomDark_figureBright\9.JPG</t>
+          <t>pictures\transformed\roomDark_figureBright\T.JPG</t>
         </is>
       </c>
       <c r="C22" t="inlineStr">
         <is>
-          <t>gamma</t>
+          <t>contrast</t>
         </is>
       </c>
       <c r="D22" t="n">
-        <v>0.962668284062127</v>
+        <v>0.9174956158497827</v>
       </c>
       <c r="E22" t="inlineStr">
         <is>
-          <t>brightness</t>
+          <t>sharpness</t>
         </is>
       </c>
       <c r="F22" t="n">
-        <v>18.22381329441849</v>
+        <v>0.8730769849445945</v>
       </c>
       <c r="G22" t="inlineStr">
         <is>
-          <t>sharpness</t>
+          <t>equalization</t>
         </is>
       </c>
       <c r="H22" t="n">
-        <v>0.8843697830377952</v>
+        <v>25.84393654010896</v>
       </c>
       <c r="I22" t="n">
         <v>4</v>
       </c>
       <c r="J22" t="inlineStr">
         <is>
-          <t>21_9_gamma0.96_brightness18.0_sharpness0.88.jpg</t>
+          <t>21_T_contrast0.92_sharpness0.87_equalization26.0.jpg</t>
         </is>
       </c>
     </row>
@@ -1368,39 +1368,39 @@
       </c>
       <c r="B23" t="inlineStr">
         <is>
-          <t>pictures\transformed\roomDark_figureBright\2.JPG</t>
+          <t>pictures\transformed\roomDark_figureBright\0.JPG</t>
         </is>
       </c>
       <c r="C23" t="inlineStr">
         <is>
-          <t>gamma</t>
+          <t>contrast</t>
         </is>
       </c>
       <c r="D23" t="n">
-        <v>1.076150783755432</v>
+        <v>0.8976407817078751</v>
       </c>
       <c r="E23" t="inlineStr">
         <is>
-          <t>contrast</t>
+          <t>brightness</t>
         </is>
       </c>
       <c r="F23" t="n">
-        <v>0.9191368020247801</v>
+        <v>7.380069935192976</v>
       </c>
       <c r="G23" t="inlineStr">
         <is>
-          <t>brightness</t>
+          <t>gamma</t>
         </is>
       </c>
       <c r="H23" t="n">
-        <v>1.60425463971188</v>
+        <v>0.9648201269539716</v>
       </c>
       <c r="I23" t="n">
         <v>4</v>
       </c>
       <c r="J23" t="inlineStr">
         <is>
-          <t>22_2_gamma1.1_contrast0.92_brightness1.6.jpg</t>
+          <t>22_0_contrast0.9_brightness7.4_gamma0.96.jpg</t>
         </is>
       </c>
     </row>
@@ -1410,39 +1410,39 @@
       </c>
       <c r="B24" t="inlineStr">
         <is>
-          <t>pictures\transformed\roomDark_figureBright\B.JPG</t>
+          <t>pictures\transformed\roomDark_figureBright\3.JPG</t>
         </is>
       </c>
       <c r="C24" t="inlineStr">
         <is>
-          <t>contrast</t>
+          <t>brightness</t>
         </is>
       </c>
       <c r="D24" t="n">
-        <v>1.077471146123477</v>
+        <v>19.54752100997371</v>
       </c>
       <c r="E24" t="inlineStr">
         <is>
-          <t>sharpness</t>
+          <t>gamma</t>
         </is>
       </c>
       <c r="F24" t="n">
-        <v>0.2926578319136606</v>
+        <v>1.045950859903091</v>
       </c>
       <c r="G24" t="inlineStr">
         <is>
-          <t>equalization</t>
+          <t>sharpness</t>
         </is>
       </c>
       <c r="H24" t="n">
-        <v>7.918676409521224</v>
+        <v>0.2274969755550181</v>
       </c>
       <c r="I24" t="n">
         <v>4</v>
       </c>
       <c r="J24" t="inlineStr">
         <is>
-          <t>23_B_contrast1.1_sharpness0.29_equalization7.9.jpg</t>
+          <t>23_3_brightness20.0_gamma1.0_sharpness0.23.jpg</t>
         </is>
       </c>
     </row>
@@ -1452,39 +1452,39 @@
       </c>
       <c r="B25" t="inlineStr">
         <is>
-          <t>pictures\transformed\roomDark_figureBright\1.JPG</t>
+          <t>pictures\transformed\roomDark_figureBright\7.JPG</t>
         </is>
       </c>
       <c r="C25" t="inlineStr">
         <is>
-          <t>contrast</t>
+          <t>sharpness</t>
         </is>
       </c>
       <c r="D25" t="n">
-        <v>1.124609788833849</v>
+        <v>0.4188649422233049</v>
       </c>
       <c r="E25" t="inlineStr">
         <is>
-          <t>gamma</t>
+          <t>contrast</t>
         </is>
       </c>
       <c r="F25" t="n">
-        <v>0.9205906560551551</v>
+        <v>1.13646119316575</v>
       </c>
       <c r="G25" t="inlineStr">
         <is>
-          <t>brightness</t>
+          <t>equalization</t>
         </is>
       </c>
       <c r="H25" t="n">
-        <v>4.700429886103986</v>
+        <v>10.93383203446635</v>
       </c>
       <c r="I25" t="n">
         <v>4</v>
       </c>
       <c r="J25" t="inlineStr">
         <is>
-          <t>24_1_contrast1.1_gamma0.92_brightness4.7.jpg</t>
+          <t>24_7_sharpness0.42_contrast1.1_equalization11.0.jpg</t>
         </is>
       </c>
     </row>
@@ -1494,7 +1494,7 @@
       </c>
       <c r="B26" t="inlineStr">
         <is>
-          <t>pictures\transformed\roomDark_figureBright\2.JPG</t>
+          <t>pictures\transformed\roomDark_figureBright\T.JPG</t>
         </is>
       </c>
       <c r="C26" t="inlineStr">
@@ -1503,30 +1503,30 @@
         </is>
       </c>
       <c r="D26" t="n">
-        <v>0.8437167315657949</v>
+        <v>1.170641123507466</v>
       </c>
       <c r="E26" t="inlineStr">
         <is>
-          <t>gamma</t>
+          <t>sharpness</t>
         </is>
       </c>
       <c r="F26" t="n">
-        <v>0.7452064016171198</v>
+        <v>0.1129114267477141</v>
       </c>
       <c r="G26" t="inlineStr">
         <is>
-          <t>brightness</t>
+          <t>equalization</t>
         </is>
       </c>
       <c r="H26" t="n">
-        <v>23.24397632128929</v>
+        <v>7.036291824965684</v>
       </c>
       <c r="I26" t="n">
         <v>4</v>
       </c>
       <c r="J26" t="inlineStr">
         <is>
-          <t>25_2_contrast0.84_gamma0.75_brightness23.0.jpg</t>
+          <t>25_T_contrast1.2_sharpness0.11_equalization7.0.jpg</t>
         </is>
       </c>
     </row>
@@ -1536,16 +1536,16 @@
       </c>
       <c r="B27" t="inlineStr">
         <is>
-          <t>pictures\transformed\roomDark_figureBright\P.JPG</t>
+          <t>pictures\transformed\roomDark_figureBright\8.JPG</t>
         </is>
       </c>
       <c r="C27" t="inlineStr">
         <is>
-          <t>sharpness</t>
+          <t>brightness</t>
         </is>
       </c>
       <c r="D27" t="n">
-        <v>0.6996852173005028</v>
+        <v>7.380111358283731</v>
       </c>
       <c r="E27" t="inlineStr">
         <is>
@@ -1553,22 +1553,22 @@
         </is>
       </c>
       <c r="F27" t="n">
-        <v>1.020779034338612</v>
+        <v>1.022795326294131</v>
       </c>
       <c r="G27" t="inlineStr">
         <is>
-          <t>equalization</t>
+          <t>sharpness</t>
         </is>
       </c>
       <c r="H27" t="n">
-        <v>11.40067309419835</v>
+        <v>0.6895700915527674</v>
       </c>
       <c r="I27" t="n">
         <v>4</v>
       </c>
       <c r="J27" t="inlineStr">
         <is>
-          <t>26_P_sharpness0.7_contrast1.0_equalization11.0.jpg</t>
+          <t>26_8_brightness7.4_contrast1.0_sharpness0.69.jpg</t>
         </is>
       </c>
     </row>
@@ -1578,24 +1578,24 @@
       </c>
       <c r="B28" t="inlineStr">
         <is>
-          <t>pictures\transformed\roomDark_figureBright\P.JPG</t>
+          <t>pictures\transformed\roomDark_figureBright\1.JPG</t>
         </is>
       </c>
       <c r="C28" t="inlineStr">
         <is>
-          <t>sharpness</t>
+          <t>gamma</t>
         </is>
       </c>
       <c r="D28" t="n">
-        <v>0.07734972824141206</v>
+        <v>0.7280420934449185</v>
       </c>
       <c r="E28" t="inlineStr">
         <is>
-          <t>gamma</t>
+          <t>contrast</t>
         </is>
       </c>
       <c r="F28" t="n">
-        <v>0.8351218514437666</v>
+        <v>1.140495176050008</v>
       </c>
       <c r="G28" t="inlineStr">
         <is>
@@ -1603,14 +1603,14 @@
         </is>
       </c>
       <c r="H28" t="n">
-        <v>11.93141203549984</v>
+        <v>4.538212593937812</v>
       </c>
       <c r="I28" t="n">
-        <v>4</v>
+        <v>2</v>
       </c>
       <c r="J28" t="inlineStr">
         <is>
-          <t>27_P_sharpness0.077_gamma0.84_equalization12.0.jpg</t>
+          <t>27_1_gamma0.73_contrast1.1_equalization4.5.jpg</t>
         </is>
       </c>
     </row>
@@ -1620,16 +1620,16 @@
       </c>
       <c r="B29" t="inlineStr">
         <is>
-          <t>pictures\transformed\roomDark_figureBright\E.JPG</t>
+          <t>pictures\transformed\roomDark_figureBright\2.JPG</t>
         </is>
       </c>
       <c r="C29" t="inlineStr">
         <is>
-          <t>brightness</t>
+          <t>gamma</t>
         </is>
       </c>
       <c r="D29" t="n">
-        <v>14.18204275822199</v>
+        <v>0.5152068461290815</v>
       </c>
       <c r="E29" t="inlineStr">
         <is>
@@ -1637,22 +1637,22 @@
         </is>
       </c>
       <c r="F29" t="n">
-        <v>0.8195680354914252</v>
+        <v>0.2959371412841979</v>
       </c>
       <c r="G29" t="inlineStr">
         <is>
-          <t>gamma</t>
+          <t>equalization</t>
         </is>
       </c>
       <c r="H29" t="n">
-        <v>0.7790058392721845</v>
+        <v>4.351200193692973</v>
       </c>
       <c r="I29" t="n">
-        <v>1</v>
+        <v>4</v>
       </c>
       <c r="J29" t="inlineStr">
         <is>
-          <t>28_E_brightness14.0_sharpness0.82_gamma0.78.jpg</t>
+          <t>28_2_gamma0.52_sharpness0.3_equalization4.4.jpg</t>
         </is>
       </c>
     </row>
@@ -1662,7 +1662,7 @@
       </c>
       <c r="B30" t="inlineStr">
         <is>
-          <t>pictures\transformed\roomDark_figureBright\0.JPG</t>
+          <t>pictures\transformed\roomDark_figureBright\9.JPG</t>
         </is>
       </c>
       <c r="C30" t="inlineStr">
@@ -1671,7 +1671,7 @@
         </is>
       </c>
       <c r="D30" t="n">
-        <v>0.960134343963754</v>
+        <v>0.6886965523459461</v>
       </c>
       <c r="E30" t="inlineStr">
         <is>
@@ -1679,22 +1679,22 @@
         </is>
       </c>
       <c r="F30" t="n">
-        <v>0.648959568170986</v>
+        <v>0.7660635511262217</v>
       </c>
       <c r="G30" t="inlineStr">
         <is>
-          <t>equalization</t>
+          <t>brightness</t>
         </is>
       </c>
       <c r="H30" t="n">
-        <v>31.72185007090803</v>
+        <v>7.517223516300966</v>
       </c>
       <c r="I30" t="n">
-        <v>0</v>
+        <v>4</v>
       </c>
       <c r="J30" t="inlineStr">
         <is>
-          <t>29_0_gamma0.96_sharpness0.65_equalization32.0.jpg</t>
+          <t>29_9_gamma0.69_sharpness0.77_brightness7.5.jpg</t>
         </is>
       </c>
     </row>
@@ -1704,7 +1704,7 @@
       </c>
       <c r="B31" t="inlineStr">
         <is>
-          <t>pictures\transformed\roomDark_figureBright\1.JPG</t>
+          <t>pictures\transformed\roomDark_figureBright\C.JPG</t>
         </is>
       </c>
       <c r="C31" t="inlineStr">
@@ -1713,7 +1713,7 @@
         </is>
       </c>
       <c r="D31" t="n">
-        <v>0.4150472225910644</v>
+        <v>0.2803450228639417</v>
       </c>
       <c r="E31" t="inlineStr">
         <is>
@@ -1721,7 +1721,7 @@
         </is>
       </c>
       <c r="F31" t="n">
-        <v>0.6996516116049385</v>
+        <v>0.9308775273264791</v>
       </c>
       <c r="G31" t="inlineStr">
         <is>
@@ -1729,14 +1729,14 @@
         </is>
       </c>
       <c r="H31" t="n">
-        <v>14.65363920460423</v>
+        <v>14.42034912654874</v>
       </c>
       <c r="I31" t="n">
-        <v>0</v>
+        <v>4</v>
       </c>
       <c r="J31" t="inlineStr">
         <is>
-          <t>30_1_sharpness0.42_gamma0.7_equalization15.0.jpg</t>
+          <t>30_C_sharpness0.28_gamma0.93_equalization14.0.jpg</t>
         </is>
       </c>
     </row>
@@ -1746,7 +1746,7 @@
       </c>
       <c r="B32" t="inlineStr">
         <is>
-          <t>pictures\transformed\roomDark_figureBright\S.JPG</t>
+          <t>pictures\transformed\roomDark_figureBright\P.JPG</t>
         </is>
       </c>
       <c r="C32" t="inlineStr">
@@ -1755,15 +1755,15 @@
         </is>
       </c>
       <c r="D32" t="n">
-        <v>1.025357526891209</v>
+        <v>0.6942274456937985</v>
       </c>
       <c r="E32" t="inlineStr">
         <is>
-          <t>sharpness</t>
+          <t>contrast</t>
         </is>
       </c>
       <c r="F32" t="n">
-        <v>0.5353400191244136</v>
+        <v>0.9423684012884076</v>
       </c>
       <c r="G32" t="inlineStr">
         <is>
@@ -1771,14 +1771,14 @@
         </is>
       </c>
       <c r="H32" t="n">
-        <v>19.13539204248029</v>
+        <v>12.5314282518897</v>
       </c>
       <c r="I32" t="n">
         <v>4</v>
       </c>
       <c r="J32" t="inlineStr">
         <is>
-          <t>31_S_gamma1.0_sharpness0.54_equalization19.0.jpg</t>
+          <t>31_P_gamma0.69_contrast0.94_equalization13.0.jpg</t>
         </is>
       </c>
     </row>
@@ -1788,7 +1788,7 @@
       </c>
       <c r="B33" t="inlineStr">
         <is>
-          <t>pictures\transformed\roomDark_figureBright\T.JPG</t>
+          <t>pictures\transformed\roomDark_figureBright\2.JPG</t>
         </is>
       </c>
       <c r="C33" t="inlineStr">
@@ -1797,7 +1797,7 @@
         </is>
       </c>
       <c r="D33" t="n">
-        <v>28.58673923610039</v>
+        <v>4.15017242236257</v>
       </c>
       <c r="E33" t="inlineStr">
         <is>
@@ -1805,22 +1805,22 @@
         </is>
       </c>
       <c r="F33" t="n">
-        <v>0.08515919058645305</v>
+        <v>0.5348451801253595</v>
       </c>
       <c r="G33" t="inlineStr">
         <is>
-          <t>gamma</t>
+          <t>contrast</t>
         </is>
       </c>
       <c r="H33" t="n">
-        <v>0.6060987646914194</v>
+        <v>0.9532991144421193</v>
       </c>
       <c r="I33" t="n">
-        <v>1</v>
+        <v>4</v>
       </c>
       <c r="J33" t="inlineStr">
         <is>
-          <t>32_T_brightness29.0_sharpness0.085_gamma0.61.jpg</t>
+          <t>32_2_brightness4.2_sharpness0.53_contrast0.95.jpg</t>
         </is>
       </c>
     </row>
@@ -1830,7 +1830,7 @@
       </c>
       <c r="B34" t="inlineStr">
         <is>
-          <t>pictures\transformed\roomDark_figureBright\3.JPG</t>
+          <t>pictures\transformed\roomDark_figureBright\B.JPG</t>
         </is>
       </c>
       <c r="C34" t="inlineStr">
@@ -1839,15 +1839,15 @@
         </is>
       </c>
       <c r="D34" t="n">
-        <v>1.052816585418912</v>
+        <v>0.8629785589774419</v>
       </c>
       <c r="E34" t="inlineStr">
         <is>
-          <t>sharpness</t>
+          <t>contrast</t>
         </is>
       </c>
       <c r="F34" t="n">
-        <v>0.0238056867616292</v>
+        <v>1.158927181229666</v>
       </c>
       <c r="G34" t="inlineStr">
         <is>
@@ -1855,14 +1855,14 @@
         </is>
       </c>
       <c r="H34" t="n">
-        <v>17.16457407355753</v>
+        <v>5.663909952892846</v>
       </c>
       <c r="I34" t="n">
         <v>4</v>
       </c>
       <c r="J34" t="inlineStr">
         <is>
-          <t>33_3_gamma1.1_sharpness0.024_equalization17.0.jpg</t>
+          <t>33_B_gamma0.86_contrast1.2_equalization5.7.jpg</t>
         </is>
       </c>
     </row>
@@ -1872,24 +1872,24 @@
       </c>
       <c r="B35" t="inlineStr">
         <is>
-          <t>pictures\transformed\roomDark_figureBright\9.JPG</t>
+          <t>pictures\transformed\roomDark_figureBright\P.JPG</t>
         </is>
       </c>
       <c r="C35" t="inlineStr">
         <is>
-          <t>sharpness</t>
+          <t>gamma</t>
         </is>
       </c>
       <c r="D35" t="n">
-        <v>0.4998162868046518</v>
+        <v>0.5524593291178114</v>
       </c>
       <c r="E35" t="inlineStr">
         <is>
-          <t>contrast</t>
+          <t>sharpness</t>
         </is>
       </c>
       <c r="F35" t="n">
-        <v>0.9810693385822552</v>
+        <v>0.8508904500944784</v>
       </c>
       <c r="G35" t="inlineStr">
         <is>
@@ -1897,14 +1897,14 @@
         </is>
       </c>
       <c r="H35" t="n">
-        <v>11.04819481381409</v>
+        <v>15.46987557176326</v>
       </c>
       <c r="I35" t="n">
         <v>4</v>
       </c>
       <c r="J35" t="inlineStr">
         <is>
-          <t>34_9_sharpness0.5_contrast0.98_equalization11.0.jpg</t>
+          <t>34_P_gamma0.55_sharpness0.85_equalization15.0.jpg</t>
         </is>
       </c>
     </row>
@@ -1914,39 +1914,39 @@
       </c>
       <c r="B36" t="inlineStr">
         <is>
-          <t>pictures\transformed\roomDark_figureBright\8.JPG</t>
+          <t>pictures\transformed\roomDark_figureBright\7.JPG</t>
         </is>
       </c>
       <c r="C36" t="inlineStr">
         <is>
-          <t>gamma</t>
+          <t>contrast</t>
         </is>
       </c>
       <c r="D36" t="n">
-        <v>0.7995339272737298</v>
+        <v>1.068151528505906</v>
       </c>
       <c r="E36" t="inlineStr">
         <is>
-          <t>brightness</t>
+          <t>sharpness</t>
         </is>
       </c>
       <c r="F36" t="n">
-        <v>2.497914927265911</v>
+        <v>0.4523503473111551</v>
       </c>
       <c r="G36" t="inlineStr">
         <is>
-          <t>sharpness</t>
+          <t>equalization</t>
         </is>
       </c>
       <c r="H36" t="n">
-        <v>0.9584395763777995</v>
+        <v>28.91516194302064</v>
       </c>
       <c r="I36" t="n">
         <v>4</v>
       </c>
       <c r="J36" t="inlineStr">
         <is>
-          <t>35_8_gamma0.8_brightness2.5_sharpness0.96.jpg</t>
+          <t>35_7_contrast1.1_sharpness0.45_equalization29.0.jpg</t>
         </is>
       </c>
     </row>
@@ -1956,16 +1956,16 @@
       </c>
       <c r="B37" t="inlineStr">
         <is>
-          <t>pictures\transformed\roomDark_figureBright\9.JPG</t>
+          <t>pictures\transformed\roomDark_figureBright\E.JPG</t>
         </is>
       </c>
       <c r="C37" t="inlineStr">
         <is>
-          <t>sharpness</t>
+          <t>gamma</t>
         </is>
       </c>
       <c r="D37" t="n">
-        <v>0.1004042189719208</v>
+        <v>1.04851299483672</v>
       </c>
       <c r="E37" t="inlineStr">
         <is>
@@ -1973,22 +1973,22 @@
         </is>
       </c>
       <c r="F37" t="n">
-        <v>1.036869220602608</v>
+        <v>0.9155788154887144</v>
       </c>
       <c r="G37" t="inlineStr">
         <is>
-          <t>brightness</t>
+          <t>sharpness</t>
         </is>
       </c>
       <c r="H37" t="n">
-        <v>17.31692191574723</v>
+        <v>0.649790213581032</v>
       </c>
       <c r="I37" t="n">
-        <v>4</v>
+        <v>2</v>
       </c>
       <c r="J37" t="inlineStr">
         <is>
-          <t>36_9_sharpness0.1_contrast1.0_brightness17.0.jpg</t>
+          <t>36_E_gamma1.0_contrast0.92_sharpness0.65.jpg</t>
         </is>
       </c>
     </row>
@@ -1998,39 +1998,39 @@
       </c>
       <c r="B38" t="inlineStr">
         <is>
-          <t>pictures\transformed\roomDark_figureBright\9.JPG</t>
+          <t>pictures\transformed\roomDark_figureBright\7.JPG</t>
         </is>
       </c>
       <c r="C38" t="inlineStr">
         <is>
-          <t>sharpness</t>
+          <t>contrast</t>
         </is>
       </c>
       <c r="D38" t="n">
-        <v>0.166796457332131</v>
+        <v>1.18075583190588</v>
       </c>
       <c r="E38" t="inlineStr">
         <is>
+          <t>sharpness</t>
+        </is>
+      </c>
+      <c r="F38" t="n">
+        <v>0.149717333896749</v>
+      </c>
+      <c r="G38" t="inlineStr">
+        <is>
           <t>brightness</t>
         </is>
       </c>
-      <c r="F38" t="n">
-        <v>16.10293434694435</v>
-      </c>
-      <c r="G38" t="inlineStr">
-        <is>
-          <t>contrast</t>
-        </is>
-      </c>
       <c r="H38" t="n">
-        <v>1.186627009131762</v>
+        <v>11.14415924757858</v>
       </c>
       <c r="I38" t="n">
         <v>4</v>
       </c>
       <c r="J38" t="inlineStr">
         <is>
-          <t>37_9_sharpness0.17_brightness16.0_contrast1.2.jpg</t>
+          <t>37_7_contrast1.2_sharpness0.15_brightness11.0.jpg</t>
         </is>
       </c>
     </row>
@@ -2040,39 +2040,39 @@
       </c>
       <c r="B39" t="inlineStr">
         <is>
-          <t>pictures\transformed\roomDark_figureBright\2.JPG</t>
+          <t>pictures\transformed\roomDark_figureBright\0.JPG</t>
         </is>
       </c>
       <c r="C39" t="inlineStr">
         <is>
-          <t>brightness</t>
+          <t>gamma</t>
         </is>
       </c>
       <c r="D39" t="n">
-        <v>13.55764609305358</v>
+        <v>0.8087756820962351</v>
       </c>
       <c r="E39" t="inlineStr">
         <is>
-          <t>sharpness</t>
+          <t>contrast</t>
         </is>
       </c>
       <c r="F39" t="n">
-        <v>0.9377563272951563</v>
+        <v>1.148778478539047</v>
       </c>
       <c r="G39" t="inlineStr">
         <is>
-          <t>contrast</t>
+          <t>equalization</t>
         </is>
       </c>
       <c r="H39" t="n">
-        <v>1.185599648936966</v>
+        <v>17.26473299242836</v>
       </c>
       <c r="I39" t="n">
-        <v>4</v>
+        <v>0</v>
       </c>
       <c r="J39" t="inlineStr">
         <is>
-          <t>38_2_brightness14.0_sharpness0.94_contrast1.2.jpg</t>
+          <t>38_0_gamma0.81_contrast1.1_equalization17.0.jpg</t>
         </is>
       </c>
     </row>
@@ -2082,39 +2082,39 @@
       </c>
       <c r="B40" t="inlineStr">
         <is>
-          <t>pictures\transformed\roomDark_figureBright\9.JPG</t>
+          <t>pictures\transformed\roomDark_figureBright\S.JPG</t>
         </is>
       </c>
       <c r="C40" t="inlineStr">
         <is>
-          <t>sharpness</t>
+          <t>gamma</t>
         </is>
       </c>
       <c r="D40" t="n">
-        <v>0.3539050523200722</v>
+        <v>1.056995733979774</v>
       </c>
       <c r="E40" t="inlineStr">
         <is>
-          <t>gamma</t>
+          <t>contrast</t>
         </is>
       </c>
       <c r="F40" t="n">
-        <v>1.013014036316225</v>
+        <v>1.076278908716875</v>
       </c>
       <c r="G40" t="inlineStr">
         <is>
-          <t>equalization</t>
+          <t>sharpness</t>
         </is>
       </c>
       <c r="H40" t="n">
-        <v>9.44828686307334</v>
+        <v>0.01677047889171812</v>
       </c>
       <c r="I40" t="n">
         <v>4</v>
       </c>
       <c r="J40" t="inlineStr">
         <is>
-          <t>39_9_sharpness0.35_gamma1.0_equalization9.4.jpg</t>
+          <t>39_S_gamma1.1_contrast1.1_sharpness0.017.jpg</t>
         </is>
       </c>
     </row>
@@ -2124,39 +2124,39 @@
       </c>
       <c r="B41" t="inlineStr">
         <is>
-          <t>pictures\transformed\roomDark_figureBright\3.JPG</t>
+          <t>pictures\transformed\roomDark_figureBright\2.JPG</t>
         </is>
       </c>
       <c r="C41" t="inlineStr">
         <is>
-          <t>gamma</t>
+          <t>sharpness</t>
         </is>
       </c>
       <c r="D41" t="n">
-        <v>0.9678558755473814</v>
+        <v>0.3475066255334485</v>
       </c>
       <c r="E41" t="inlineStr">
         <is>
-          <t>contrast</t>
+          <t>brightness</t>
         </is>
       </c>
       <c r="F41" t="n">
-        <v>0.9754877145502804</v>
+        <v>29.93142567812612</v>
       </c>
       <c r="G41" t="inlineStr">
         <is>
-          <t>sharpness</t>
+          <t>contrast</t>
         </is>
       </c>
       <c r="H41" t="n">
-        <v>0.8308826611501073</v>
+        <v>1.015634534619732</v>
       </c>
       <c r="I41" t="n">
         <v>4</v>
       </c>
       <c r="J41" t="inlineStr">
         <is>
-          <t>40_3_gamma0.97_contrast0.98_sharpness0.83.jpg</t>
+          <t>40_2_sharpness0.35_brightness30.0_contrast1.0.jpg</t>
         </is>
       </c>
     </row>
@@ -2166,24 +2166,24 @@
       </c>
       <c r="B42" t="inlineStr">
         <is>
-          <t>pictures\transformed\roomDark_figureBright\B.JPG</t>
+          <t>pictures\transformed\roomDark_figureBright\8.JPG</t>
         </is>
       </c>
       <c r="C42" t="inlineStr">
         <is>
-          <t>gamma</t>
+          <t>contrast</t>
         </is>
       </c>
       <c r="D42" t="n">
-        <v>0.6978865460770074</v>
+        <v>0.9722955323117325</v>
       </c>
       <c r="E42" t="inlineStr">
         <is>
-          <t>contrast</t>
+          <t>gamma</t>
         </is>
       </c>
       <c r="F42" t="n">
-        <v>1.107069426869465</v>
+        <v>0.7264920552152507</v>
       </c>
       <c r="G42" t="inlineStr">
         <is>
@@ -2191,14 +2191,14 @@
         </is>
       </c>
       <c r="H42" t="n">
-        <v>22.45132304648216</v>
+        <v>23.00600948913049</v>
       </c>
       <c r="I42" t="n">
         <v>4</v>
       </c>
       <c r="J42" t="inlineStr">
         <is>
-          <t>41_B_gamma0.7_contrast1.1_equalization22.0.jpg</t>
+          <t>41_8_contrast0.97_gamma0.73_equalization23.0.jpg</t>
         </is>
       </c>
     </row>
@@ -2208,7 +2208,7 @@
       </c>
       <c r="B43" t="inlineStr">
         <is>
-          <t>pictures\transformed\roomDark_figureBright\S.JPG</t>
+          <t>pictures\transformed\roomDark_figureBright\3.JPG</t>
         </is>
       </c>
       <c r="C43" t="inlineStr">
@@ -2217,7 +2217,7 @@
         </is>
       </c>
       <c r="D43" t="n">
-        <v>0.9943351854983805</v>
+        <v>0.81442546513424</v>
       </c>
       <c r="E43" t="inlineStr">
         <is>
@@ -2225,7 +2225,7 @@
         </is>
       </c>
       <c r="F43" t="n">
-        <v>0.7341263314871322</v>
+        <v>1.047593982749161</v>
       </c>
       <c r="G43" t="inlineStr">
         <is>
@@ -2233,14 +2233,14 @@
         </is>
       </c>
       <c r="H43" t="n">
-        <v>9.770349048486038</v>
+        <v>4.029986792452112</v>
       </c>
       <c r="I43" t="n">
         <v>4</v>
       </c>
       <c r="J43" t="inlineStr">
         <is>
-          <t>42_S_contrast0.99_gamma0.73_equalization9.8.jpg</t>
+          <t>42_3_contrast0.81_gamma1.0_equalization4.0.jpg</t>
         </is>
       </c>
     </row>
@@ -2250,7 +2250,7 @@
       </c>
       <c r="B44" t="inlineStr">
         <is>
-          <t>pictures\transformed\roomDark_figureBright\7.JPG</t>
+          <t>pictures\transformed\roomDark_figureBright\8.JPG</t>
         </is>
       </c>
       <c r="C44" t="inlineStr">
@@ -2259,7 +2259,7 @@
         </is>
       </c>
       <c r="D44" t="n">
-        <v>1.14232397240701</v>
+        <v>1.024384679648908</v>
       </c>
       <c r="E44" t="inlineStr">
         <is>
@@ -2267,7 +2267,7 @@
         </is>
       </c>
       <c r="F44" t="n">
-        <v>0.6796803675894836</v>
+        <v>0.8983965217516106</v>
       </c>
       <c r="G44" t="inlineStr">
         <is>
@@ -2275,14 +2275,14 @@
         </is>
       </c>
       <c r="H44" t="n">
-        <v>4.329409014561607</v>
+        <v>17.55903805047396</v>
       </c>
       <c r="I44" t="n">
         <v>4</v>
       </c>
       <c r="J44" t="inlineStr">
         <is>
-          <t>43_7_contrast1.1_sharpness0.68_equalization4.3.jpg</t>
+          <t>43_8_contrast1.0_sharpness0.9_equalization18.0.jpg</t>
         </is>
       </c>
     </row>
@@ -2292,39 +2292,39 @@
       </c>
       <c r="B45" t="inlineStr">
         <is>
-          <t>pictures\transformed\roomDark_figureBright\E.JPG</t>
+          <t>pictures\transformed\roomDark_figureBright\2.JPG</t>
         </is>
       </c>
       <c r="C45" t="inlineStr">
         <is>
-          <t>gamma</t>
+          <t>contrast</t>
         </is>
       </c>
       <c r="D45" t="n">
-        <v>0.7427502105980937</v>
+        <v>0.9001427990177288</v>
       </c>
       <c r="E45" t="inlineStr">
         <is>
-          <t>contrast</t>
+          <t>brightness</t>
         </is>
       </c>
       <c r="F45" t="n">
-        <v>1.033190766408322</v>
+        <v>22.47614396376112</v>
       </c>
       <c r="G45" t="inlineStr">
         <is>
-          <t>equalization</t>
+          <t>sharpness</t>
         </is>
       </c>
       <c r="H45" t="n">
-        <v>31.22089129175925</v>
+        <v>0.5583088568286482</v>
       </c>
       <c r="I45" t="n">
         <v>2</v>
       </c>
       <c r="J45" t="inlineStr">
         <is>
-          <t>44_E_gamma0.74_contrast1.0_equalization31.0.jpg</t>
+          <t>44_2_contrast0.9_brightness22.0_sharpness0.56.jpg</t>
         </is>
       </c>
     </row>
@@ -2334,39 +2334,39 @@
       </c>
       <c r="B46" t="inlineStr">
         <is>
-          <t>pictures\transformed\roomDark_figureBright\B.JPG</t>
+          <t>pictures\transformed\roomDark_figureBright\2.JPG</t>
         </is>
       </c>
       <c r="C46" t="inlineStr">
         <is>
+          <t>contrast</t>
+        </is>
+      </c>
+      <c r="D46" t="n">
+        <v>0.929125636394561</v>
+      </c>
+      <c r="E46" t="inlineStr">
+        <is>
           <t>brightness</t>
         </is>
       </c>
-      <c r="D46" t="n">
-        <v>29.72625695936508</v>
-      </c>
-      <c r="E46" t="inlineStr">
-        <is>
-          <t>gamma</t>
-        </is>
-      </c>
       <c r="F46" t="n">
-        <v>0.8653295359887165</v>
+        <v>12.69995404852471</v>
       </c>
       <c r="G46" t="inlineStr">
         <is>
-          <t>contrast</t>
+          <t>sharpness</t>
         </is>
       </c>
       <c r="H46" t="n">
-        <v>0.8361237057303699</v>
+        <v>0.2486576047490334</v>
       </c>
       <c r="I46" t="n">
         <v>4</v>
       </c>
       <c r="J46" t="inlineStr">
         <is>
-          <t>45_B_brightness30.0_gamma0.87_contrast0.84.jpg</t>
+          <t>45_2_contrast0.93_brightness13.0_sharpness0.25.jpg</t>
         </is>
       </c>
     </row>
@@ -2376,39 +2376,39 @@
       </c>
       <c r="B47" t="inlineStr">
         <is>
-          <t>pictures\transformed\roomDark_figureBright\7.JPG</t>
+          <t>pictures\transformed\roomDark_figureBright\T.JPG</t>
         </is>
       </c>
       <c r="C47" t="inlineStr">
         <is>
-          <t>sharpness</t>
+          <t>gamma</t>
         </is>
       </c>
       <c r="D47" t="n">
-        <v>0.3222626689299964</v>
+        <v>0.9438804938116181</v>
       </c>
       <c r="E47" t="inlineStr">
         <is>
-          <t>brightness</t>
+          <t>sharpness</t>
         </is>
       </c>
       <c r="F47" t="n">
-        <v>0.5405312077317559</v>
+        <v>0.5885578315104608</v>
       </c>
       <c r="G47" t="inlineStr">
         <is>
-          <t>contrast</t>
+          <t>equalization</t>
         </is>
       </c>
       <c r="H47" t="n">
-        <v>1.127598761752943</v>
+        <v>17.70657459997184</v>
       </c>
       <c r="I47" t="n">
-        <v>2</v>
+        <v>1</v>
       </c>
       <c r="J47" t="inlineStr">
         <is>
-          <t>46_7_sharpness0.32_brightness0.54_contrast1.1.jpg</t>
+          <t>46_T_gamma0.94_sharpness0.59_equalization18.0.jpg</t>
         </is>
       </c>
     </row>
@@ -2418,7 +2418,7 @@
       </c>
       <c r="B48" t="inlineStr">
         <is>
-          <t>pictures\transformed\roomDark_figureBright\9.JPG</t>
+          <t>pictures\transformed\roomDark_figureBright\E.JPG</t>
         </is>
       </c>
       <c r="C48" t="inlineStr">
@@ -2427,30 +2427,30 @@
         </is>
       </c>
       <c r="D48" t="n">
-        <v>0.8706329645249443</v>
+        <v>0.5722303298849637</v>
       </c>
       <c r="E48" t="inlineStr">
         <is>
+          <t>sharpness</t>
+        </is>
+      </c>
+      <c r="F48" t="n">
+        <v>0.7738626327428644</v>
+      </c>
+      <c r="G48" t="inlineStr">
+        <is>
           <t>brightness</t>
         </is>
       </c>
-      <c r="F48" t="n">
-        <v>14.59549897295284</v>
-      </c>
-      <c r="G48" t="inlineStr">
-        <is>
-          <t>contrast</t>
-        </is>
-      </c>
       <c r="H48" t="n">
-        <v>0.882748224363663</v>
+        <v>12.8102891740175</v>
       </c>
       <c r="I48" t="n">
         <v>4</v>
       </c>
       <c r="J48" t="inlineStr">
         <is>
-          <t>47_9_gamma0.87_brightness15.0_contrast0.88.jpg</t>
+          <t>47_E_gamma0.57_sharpness0.77_brightness13.0.jpg</t>
         </is>
       </c>
     </row>
@@ -2460,39 +2460,39 @@
       </c>
       <c r="B49" t="inlineStr">
         <is>
-          <t>pictures\transformed\roomDark_figureBright\B.JPG</t>
+          <t>pictures\transformed\roomDark_figureBright\T.JPG</t>
         </is>
       </c>
       <c r="C49" t="inlineStr">
         <is>
-          <t>contrast</t>
+          <t>gamma</t>
         </is>
       </c>
       <c r="D49" t="n">
-        <v>0.8406788848787661</v>
+        <v>0.7873303020353755</v>
       </c>
       <c r="E49" t="inlineStr">
         <is>
-          <t>brightness</t>
+          <t>sharpness</t>
         </is>
       </c>
       <c r="F49" t="n">
-        <v>17.24283851419691</v>
+        <v>0.4928320961260296</v>
       </c>
       <c r="G49" t="inlineStr">
         <is>
-          <t>sharpness</t>
+          <t>equalization</t>
         </is>
       </c>
       <c r="H49" t="n">
-        <v>0.619870793330724</v>
+        <v>4.634979565398372</v>
       </c>
       <c r="I49" t="n">
-        <v>4</v>
+        <v>2</v>
       </c>
       <c r="J49" t="inlineStr">
         <is>
-          <t>48_B_contrast0.84_brightness17.0_sharpness0.62.jpg</t>
+          <t>48_T_gamma0.79_sharpness0.49_equalization4.6.jpg</t>
         </is>
       </c>
     </row>
